--- a/Code/Results/Cases/Case_1_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.07984585072976</v>
+        <v>16.39862850593824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.522336108124371</v>
+        <v>3.477402772200163</v>
       </c>
       <c r="E2">
-        <v>21.4298350845301</v>
+        <v>22.80869768991504</v>
       </c>
       <c r="F2">
-        <v>23.07795273161166</v>
+        <v>22.0281974001364</v>
       </c>
       <c r="G2">
-        <v>2.029389602253092</v>
+        <v>3.590684002881349</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.409114592036829</v>
+        <v>8.577136736468916</v>
       </c>
       <c r="M2">
-        <v>11.90896216435246</v>
+        <v>15.07501039886376</v>
       </c>
       <c r="N2">
-        <v>14.64083152670118</v>
+        <v>19.44456028645104</v>
       </c>
       <c r="O2">
-        <v>17.63658754146511</v>
+        <v>19.21709317571765</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.29789379504948</v>
+        <v>16.23145348657</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.484815373730425</v>
+        <v>3.467115742155728</v>
       </c>
       <c r="E3">
-        <v>20.86094734019196</v>
+        <v>22.65606221959466</v>
       </c>
       <c r="F3">
-        <v>21.77123121986308</v>
+        <v>21.77035295446004</v>
       </c>
       <c r="G3">
-        <v>2.035963387159311</v>
+        <v>3.593229942687646</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.909965735730095</v>
+        <v>8.477002520740809</v>
       </c>
       <c r="M3">
-        <v>11.39524445786621</v>
+        <v>14.98869745960153</v>
       </c>
       <c r="N3">
-        <v>14.63090682675324</v>
+        <v>19.46701003805822</v>
       </c>
       <c r="O3">
-        <v>16.77002624711233</v>
+        <v>19.09626238823792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.80077169310572</v>
+        <v>16.13081926170712</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.461352423862372</v>
+        <v>3.460731157103996</v>
       </c>
       <c r="E4">
-        <v>20.50476023409739</v>
+        <v>22.56257219661076</v>
       </c>
       <c r="F4">
-        <v>20.94926439649064</v>
+        <v>21.61818102675239</v>
       </c>
       <c r="G4">
-        <v>2.040122743030855</v>
+        <v>3.594877293711931</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.587282178728577</v>
+        <v>8.415957553353433</v>
       </c>
       <c r="M4">
-        <v>11.07157545352578</v>
+        <v>14.93751499042491</v>
       </c>
       <c r="N4">
-        <v>14.62977387884374</v>
+        <v>19.48322876891323</v>
       </c>
       <c r="O4">
-        <v>16.23197852873338</v>
+        <v>19.02783396003856</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59414707479592</v>
+        <v>16.09035770080796</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.451691470103148</v>
+        <v>3.458112847975432</v>
       </c>
       <c r="E5">
-        <v>20.35804841187269</v>
+        <v>22.52455540483771</v>
       </c>
       <c r="F5">
-        <v>20.60975044873307</v>
+        <v>21.55779249655497</v>
       </c>
       <c r="G5">
-        <v>2.04184958411575</v>
+        <v>3.595569829073876</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.451737939068108</v>
+        <v>8.391215761860138</v>
       </c>
       <c r="M5">
-        <v>10.93778300620422</v>
+        <v>14.91712957496795</v>
       </c>
       <c r="N5">
-        <v>14.63054368121377</v>
+        <v>19.49045166775327</v>
       </c>
       <c r="O5">
-        <v>16.01151497062901</v>
+        <v>19.00142301135808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.55960061858054</v>
+        <v>16.08367337119525</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.450081477708686</v>
+        <v>3.457677099386604</v>
       </c>
       <c r="E6">
-        <v>20.33359783882764</v>
+        <v>22.51824833265212</v>
       </c>
       <c r="F6">
-        <v>20.5531120119529</v>
+        <v>21.54786522316435</v>
       </c>
       <c r="G6">
-        <v>2.042138276022253</v>
+        <v>3.59568610813754</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.428987437153026</v>
+        <v>8.387116241408096</v>
       </c>
       <c r="M6">
-        <v>10.91545812354436</v>
+        <v>14.9137735375829</v>
       </c>
       <c r="N6">
-        <v>14.63074541468299</v>
+        <v>19.49168812818974</v>
       </c>
       <c r="O6">
-        <v>15.97484399934633</v>
+        <v>18.99712721414814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.79800111512148</v>
+        <v>16.13027131085902</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.461222526374598</v>
+        <v>3.460695911807268</v>
       </c>
       <c r="E7">
-        <v>20.50278772138205</v>
+        <v>22.56205912921217</v>
       </c>
       <c r="F7">
-        <v>20.94470347479597</v>
+        <v>21.61735993607413</v>
       </c>
       <c r="G7">
-        <v>2.040145901573199</v>
+        <v>3.594886547447998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.585470528567282</v>
+        <v>8.415623300084391</v>
       </c>
       <c r="M7">
-        <v>11.06977849992314</v>
+        <v>14.93723813480069</v>
       </c>
       <c r="N7">
-        <v>14.62977929562425</v>
+        <v>19.48332369298637</v>
       </c>
       <c r="O7">
-        <v>16.22900973078512</v>
+        <v>19.02747177256051</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.81388324159059</v>
+        <v>16.34059434050399</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.509491457428856</v>
+        <v>3.473870363183526</v>
       </c>
       <c r="E8">
-        <v>21.23520966968813</v>
+        <v>22.75603572680652</v>
       </c>
       <c r="F8">
-        <v>22.63167428262878</v>
+        <v>21.9380647098966</v>
       </c>
       <c r="G8">
-        <v>2.031631287768793</v>
+        <v>3.591544423375593</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.240383669078719</v>
+        <v>8.542534286815487</v>
       </c>
       <c r="M8">
-        <v>11.73364300950619</v>
+        <v>15.04488280442568</v>
       </c>
       <c r="N8">
-        <v>14.63637030948438</v>
+        <v>19.45179657413881</v>
       </c>
       <c r="O8">
-        <v>17.33920180358401</v>
+        <v>19.17425077079178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.66300383057176</v>
+        <v>16.76712503867862</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.600470385700623</v>
+        <v>3.499135974694868</v>
       </c>
       <c r="E9">
-        <v>22.61008872994051</v>
+        <v>23.13719644820755</v>
       </c>
       <c r="F9">
-        <v>25.77129263713931</v>
+        <v>22.61215259341746</v>
       </c>
       <c r="G9">
-        <v>2.015865289067649</v>
+        <v>3.585654888474467</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.395484338579587</v>
+        <v>8.793802973789456</v>
       </c>
       <c r="M9">
-        <v>12.96343349031259</v>
+        <v>15.26965065511827</v>
       </c>
       <c r="N9">
-        <v>14.68936893224692</v>
+        <v>19.40922332261857</v>
       </c>
       <c r="O9">
-        <v>19.4581998513338</v>
+        <v>19.50656426909281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.92597176227557</v>
+        <v>17.08653557026863</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.664690657130584</v>
+        <v>3.517315441604726</v>
       </c>
       <c r="E10">
-        <v>23.57477843734066</v>
+        <v>23.41630852782912</v>
       </c>
       <c r="F10">
-        <v>28.06141780174232</v>
+        <v>23.12997416579037</v>
       </c>
       <c r="G10">
-        <v>2.004782371080116</v>
+        <v>3.581728385601701</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.16523111705744</v>
+        <v>8.978431999761465</v>
       </c>
       <c r="M10">
-        <v>13.872046241572</v>
+        <v>15.44213140974174</v>
       </c>
       <c r="N10">
-        <v>14.75370819479681</v>
+        <v>19.38959150105454</v>
       </c>
       <c r="O10">
-        <v>20.9957301560734</v>
+        <v>19.77599759646522</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.47860879484645</v>
+        <v>17.23260890836242</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.69326413883673</v>
+        <v>3.525494869523125</v>
       </c>
       <c r="E11">
-        <v>24.00238469341047</v>
+        <v>23.54278474989312</v>
       </c>
       <c r="F11">
-        <v>29.12503606757388</v>
+        <v>23.36935490805285</v>
       </c>
       <c r="G11">
-        <v>1.999832902347948</v>
+        <v>3.580028139315175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.4983963376316</v>
+        <v>9.062128193396807</v>
       </c>
       <c r="M11">
-        <v>14.35285190601211</v>
+        <v>15.52197109801086</v>
       </c>
       <c r="N11">
-        <v>14.7886979410188</v>
+        <v>19.38316917464588</v>
       </c>
       <c r="O11">
-        <v>21.80992917656012</v>
+        <v>19.90362350031512</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.68466489707107</v>
+        <v>17.28798855837017</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.703986549290581</v>
+        <v>3.52857851608574</v>
       </c>
       <c r="E12">
-        <v>24.16259669873677</v>
+        <v>23.59058196243833</v>
       </c>
       <c r="F12">
-        <v>29.52220479950546</v>
+        <v>23.46045988280879</v>
       </c>
       <c r="G12">
-        <v>1.997970466614125</v>
+        <v>3.579396585773896</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.62213040414518</v>
+        <v>9.093755037552191</v>
       </c>
       <c r="M12">
-        <v>14.53124516053346</v>
+        <v>15.55238319605516</v>
       </c>
       <c r="N12">
-        <v>14.80278661235659</v>
+        <v>19.38109605307879</v>
       </c>
       <c r="O12">
-        <v>22.11389296806675</v>
+        <v>19.95264031095401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.64043088809246</v>
+        <v>17.27605940464187</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.701681717887966</v>
+        <v>3.527915019391897</v>
       </c>
       <c r="E13">
-        <v>24.12816975871824</v>
+        <v>23.58029267987206</v>
       </c>
       <c r="F13">
-        <v>29.43691474760817</v>
+        <v>23.44081995585492</v>
       </c>
       <c r="G13">
-        <v>1.998371073956518</v>
+        <v>3.57953205643497</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.59558975434613</v>
+        <v>9.086947006802943</v>
       </c>
       <c r="M13">
-        <v>14.49298783184403</v>
+        <v>15.54582577923206</v>
       </c>
       <c r="N13">
-        <v>14.79971480441498</v>
+        <v>19.381526605581</v>
       </c>
       <c r="O13">
-        <v>22.04862089003601</v>
+        <v>19.9420537304818</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.49562590891946</v>
+        <v>17.23716398824407</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.694148267429576</v>
+        <v>3.525748842134089</v>
       </c>
       <c r="E14">
-        <v>24.01560026978476</v>
+        <v>23.54671913741425</v>
       </c>
       <c r="F14">
-        <v>29.15782300242732</v>
+        <v>23.37684154581783</v>
       </c>
       <c r="G14">
-        <v>1.999679450408214</v>
+        <v>3.5799759350303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.50862457288791</v>
+        <v>9.06473163872592</v>
       </c>
       <c r="M14">
-        <v>14.3676018753151</v>
+        <v>15.52446965404133</v>
       </c>
       <c r="N14">
-        <v>14.78984012198446</v>
+        <v>19.38299143597933</v>
       </c>
       <c r="O14">
-        <v>21.83502312929662</v>
+        <v>19.90764259482213</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.40650828476894</v>
+        <v>17.21334650721995</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.689520923579329</v>
+        <v>3.524420187455372</v>
       </c>
       <c r="E15">
-        <v>23.94642246950229</v>
+        <v>23.52614103623102</v>
       </c>
       <c r="F15">
-        <v>28.98614505894282</v>
+        <v>23.33770965223301</v>
       </c>
       <c r="G15">
-        <v>2.000482363407516</v>
+        <v>3.580249422449693</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.45504020044353</v>
+        <v>9.051114614574187</v>
       </c>
       <c r="M15">
-        <v>14.29032174901823</v>
+        <v>15.51141107860569</v>
       </c>
       <c r="N15">
-        <v>14.78390130616771</v>
+        <v>19.38393536774366</v>
       </c>
       <c r="O15">
-        <v>21.70362430536227</v>
+        <v>19.88665312472102</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.88940883430839</v>
+        <v>17.07700090982118</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.662809929621921</v>
+        <v>3.516779014850398</v>
       </c>
       <c r="E16">
-        <v>23.54659857927197</v>
+        <v>23.4080308864786</v>
       </c>
       <c r="F16">
-        <v>27.99111865622351</v>
+        <v>23.1143990186506</v>
       </c>
       <c r="G16">
-        <v>2.005107565670974</v>
+        <v>3.581841224436557</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.14311719168832</v>
+        <v>8.972954218685517</v>
       </c>
       <c r="M16">
-        <v>13.84010750478686</v>
+        <v>15.43693975113373</v>
       </c>
       <c r="N16">
-        <v>14.75153804149845</v>
+        <v>19.39006153495293</v>
       </c>
       <c r="O16">
-        <v>20.94190511402131</v>
+        <v>19.76775537577109</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.56652280450352</v>
+        <v>16.99352201230311</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.646255360650064</v>
+        <v>3.512067717541475</v>
       </c>
       <c r="E17">
-        <v>23.29836750096014</v>
+        <v>23.33542949291475</v>
       </c>
       <c r="F17">
-        <v>27.37062369644588</v>
+        <v>22.97831770457564</v>
       </c>
       <c r="G17">
-        <v>2.007967607220066</v>
+        <v>3.5828397080552</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.947418754603905</v>
+        <v>8.924912451897088</v>
       </c>
       <c r="M17">
-        <v>13.57230553077644</v>
+        <v>15.39159296785732</v>
       </c>
       <c r="N17">
-        <v>14.73316113069185</v>
+        <v>19.39446090557552</v>
       </c>
       <c r="O17">
-        <v>20.53393688622308</v>
+        <v>19.69608338933148</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37874913745791</v>
+        <v>16.9455825485659</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.636673616771408</v>
+        <v>3.509349427993227</v>
       </c>
       <c r="E18">
-        <v>23.15453882314892</v>
+        <v>23.29362618999944</v>
       </c>
       <c r="F18">
-        <v>27.01000163047389</v>
+        <v>22.90041253799333</v>
       </c>
       <c r="G18">
-        <v>2.009621399242654</v>
+        <v>3.583422102327045</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.833257101256876</v>
+        <v>8.897254033992207</v>
       </c>
       <c r="M18">
-        <v>13.44539807146669</v>
+        <v>15.36564152458357</v>
       </c>
       <c r="N18">
-        <v>14.72312880336113</v>
+        <v>19.39722751237408</v>
       </c>
       <c r="O18">
-        <v>20.30833996210961</v>
+        <v>19.65533825786925</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.31482111568117</v>
+        <v>16.92936543247507</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.633419278319974</v>
+        <v>3.508427627761733</v>
       </c>
       <c r="E19">
-        <v>23.10566332154848</v>
+        <v>23.27946538243044</v>
       </c>
       <c r="F19">
-        <v>26.89785388361301</v>
+        <v>22.87410074645416</v>
       </c>
       <c r="G19">
-        <v>2.010182893272864</v>
+        <v>3.583620682979216</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.794328549835232</v>
+        <v>8.887885664230105</v>
       </c>
       <c r="M19">
-        <v>13.40223461765053</v>
+        <v>15.35687787192555</v>
       </c>
       <c r="N19">
-        <v>14.71982386791167</v>
+        <v>19.39820486042964</v>
       </c>
       <c r="O19">
-        <v>20.23177474300468</v>
+        <v>19.64162606373893</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.60110814126993</v>
+        <v>17.00240101677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.648023874192356</v>
+        <v>3.512570125549615</v>
       </c>
       <c r="E20">
-        <v>23.32490183171998</v>
+        <v>23.34316286877331</v>
       </c>
       <c r="F20">
-        <v>27.43706194570192</v>
+        <v>22.99276666908855</v>
       </c>
       <c r="G20">
-        <v>2.007662253111494</v>
+        <v>3.582732580656971</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.96841679734826</v>
+        <v>8.930029460660634</v>
       </c>
       <c r="M20">
-        <v>13.59570013841356</v>
+        <v>15.39640681080007</v>
       </c>
       <c r="N20">
-        <v>14.73506162917324</v>
+        <v>19.39396815161384</v>
       </c>
       <c r="O20">
-        <v>20.57560271320329</v>
+        <v>19.70366373512421</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.53824634174334</v>
+        <v>17.24858711999805</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.696363719608603</v>
+        <v>3.526385479075548</v>
       </c>
       <c r="E21">
-        <v>24.04871185309217</v>
+        <v>23.55658332561291</v>
       </c>
       <c r="F21">
-        <v>29.23995014882367</v>
+        <v>23.39562189784542</v>
       </c>
       <c r="G21">
-        <v>1.999294839787853</v>
+        <v>3.579845224021257</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.53423410824924</v>
+        <v>9.071258848152874</v>
       </c>
       <c r="M21">
-        <v>14.40453022345775</v>
+        <v>15.5307377768732</v>
       </c>
       <c r="N21">
-        <v>14.79271766321491</v>
+        <v>19.38255145488117</v>
       </c>
       <c r="O21">
-        <v>21.89787931039798</v>
+        <v>19.91773164180891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.13196089782568</v>
+        <v>17.40984097692695</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.727384611519674</v>
+        <v>3.535334279309572</v>
       </c>
       <c r="E22">
-        <v>24.51174348958831</v>
+        <v>23.6954911841687</v>
       </c>
       <c r="F22">
-        <v>30.38566222748393</v>
+        <v>23.66153051485522</v>
       </c>
       <c r="G22">
-        <v>1.993894393741352</v>
+        <v>3.578029791639091</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.88988503771169</v>
+        <v>9.163158201426699</v>
       </c>
       <c r="M22">
-        <v>14.91697946332132</v>
+        <v>15.61956229475549</v>
       </c>
       <c r="N22">
-        <v>14.83529580236928</v>
+        <v>19.37718088080158</v>
       </c>
       <c r="O22">
-        <v>22.77462329811233</v>
+        <v>20.0616260920468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.81681761789959</v>
+        <v>17.32375918595839</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.710882241828729</v>
+        <v>3.530565721786357</v>
       </c>
       <c r="E23">
-        <v>24.26555980274503</v>
+        <v>23.62141446141613</v>
       </c>
       <c r="F23">
-        <v>29.77711783076678</v>
+        <v>23.5194008651951</v>
       </c>
       <c r="G23">
-        <v>1.996770986087352</v>
+        <v>3.578992190053821</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.70135500027321</v>
+        <v>9.11415470275225</v>
       </c>
       <c r="M23">
-        <v>14.64542019438633</v>
+        <v>15.57206710487862</v>
       </c>
       <c r="N23">
-        <v>14.81211774443733</v>
+        <v>19.37985655913735</v>
       </c>
       <c r="O23">
-        <v>22.30896872424776</v>
+        <v>19.98447548311175</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.58547877761748</v>
+        <v>16.99838664812632</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.647224529073067</v>
+        <v>3.512343017039378</v>
       </c>
       <c r="E24">
-        <v>23.31290913341807</v>
+        <v>23.33966680637614</v>
       </c>
       <c r="F24">
-        <v>27.40703733971804</v>
+        <v>22.98623325781024</v>
       </c>
       <c r="G24">
-        <v>2.007800273956534</v>
+        <v>3.582780986930106</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.958928729007257</v>
+        <v>8.927716179194981</v>
       </c>
       <c r="M24">
-        <v>13.58512718487358</v>
+        <v>15.39423010014013</v>
       </c>
       <c r="N24">
-        <v>14.7342007554646</v>
+        <v>19.39419018621083</v>
       </c>
       <c r="O24">
-        <v>20.55676925213789</v>
+        <v>19.70023522469667</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.17906789396945</v>
+        <v>16.65049104411149</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.576292503528133</v>
+        <v>3.492365626306642</v>
       </c>
       <c r="E25">
-        <v>22.245603457453</v>
+        <v>23.03414365050934</v>
       </c>
       <c r="F25">
-        <v>24.9414676745738</v>
+        <v>22.42546288780735</v>
       </c>
       <c r="G25">
-        <v>2.020037384032149</v>
+        <v>3.5871775035615</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.096874549317654</v>
+        <v>8.725720806751248</v>
       </c>
       <c r="M25">
-        <v>12.63928988406166</v>
+        <v>15.20748146700314</v>
       </c>
       <c r="N25">
-        <v>14.67064010432313</v>
+        <v>19.41868848295987</v>
       </c>
       <c r="O25">
-        <v>18.89247326920466</v>
+        <v>19.41208297107439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.39862850593824</v>
+        <v>15.07984585072977</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.477402772200163</v>
+        <v>2.52233610812426</v>
       </c>
       <c r="E2">
-        <v>22.80869768991504</v>
+        <v>21.42983508453026</v>
       </c>
       <c r="F2">
-        <v>22.0281974001364</v>
+        <v>23.07795273161161</v>
       </c>
       <c r="G2">
-        <v>3.590684002881349</v>
+        <v>2.029389602252957</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.577136736468916</v>
+        <v>8.409114592036852</v>
       </c>
       <c r="M2">
-        <v>15.07501039886376</v>
+        <v>11.90896216435244</v>
       </c>
       <c r="N2">
-        <v>19.44456028645104</v>
+        <v>14.64083152670116</v>
       </c>
       <c r="O2">
-        <v>19.21709317571765</v>
+        <v>17.63658754146503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23145348657</v>
+        <v>14.29789379504948</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.467115742155728</v>
+        <v>2.484815373730422</v>
       </c>
       <c r="E3">
-        <v>22.65606221959466</v>
+        <v>20.86094734019203</v>
       </c>
       <c r="F3">
-        <v>21.77035295446004</v>
+        <v>21.7712312198631</v>
       </c>
       <c r="G3">
-        <v>3.593229942687646</v>
+        <v>2.035963387159179</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.477002520740809</v>
+        <v>7.909965735730101</v>
       </c>
       <c r="M3">
-        <v>14.98869745960153</v>
+        <v>11.39524445786621</v>
       </c>
       <c r="N3">
-        <v>19.46701003805822</v>
+        <v>14.63090682675327</v>
       </c>
       <c r="O3">
-        <v>19.09626238823792</v>
+        <v>16.77002624711235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.13081926170712</v>
+        <v>13.80077169310575</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.460731157103996</v>
+        <v>2.461352423862365</v>
       </c>
       <c r="E4">
-        <v>22.56257219661076</v>
+        <v>20.50476023409757</v>
       </c>
       <c r="F4">
-        <v>21.61818102675239</v>
+        <v>20.94926439649061</v>
       </c>
       <c r="G4">
-        <v>3.594877293711931</v>
+        <v>2.040122743030988</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.415957553353433</v>
+        <v>7.587282178728577</v>
       </c>
       <c r="M4">
-        <v>14.93751499042491</v>
+        <v>11.07157545352579</v>
       </c>
       <c r="N4">
-        <v>19.48322876891323</v>
+        <v>14.62977387884371</v>
       </c>
       <c r="O4">
-        <v>19.02783396003856</v>
+        <v>16.23197852873334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.09035770080796</v>
+        <v>13.59414707479592</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.458112847975432</v>
+        <v>2.451691470103152</v>
       </c>
       <c r="E5">
-        <v>22.52455540483771</v>
+        <v>20.3580484118727</v>
       </c>
       <c r="F5">
-        <v>21.55779249655497</v>
+        <v>20.60975044873306</v>
       </c>
       <c r="G5">
-        <v>3.595569829073876</v>
+        <v>2.041849584115749</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.391215761860138</v>
+        <v>7.451737939068077</v>
       </c>
       <c r="M5">
-        <v>14.91712957496795</v>
+        <v>10.93778300620423</v>
       </c>
       <c r="N5">
-        <v>19.49045166775327</v>
+        <v>14.63054368121375</v>
       </c>
       <c r="O5">
-        <v>19.00142301135808</v>
+        <v>16.01151497062899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.08367337119525</v>
+        <v>13.55960061858051</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.457677099386604</v>
+        <v>2.450081477708801</v>
       </c>
       <c r="E6">
-        <v>22.51824833265212</v>
+        <v>20.33359783882758</v>
       </c>
       <c r="F6">
-        <v>21.54786522316435</v>
+        <v>20.55311201195287</v>
       </c>
       <c r="G6">
-        <v>3.59568610813754</v>
+        <v>2.042138276022117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.387116241408096</v>
+        <v>7.428987437153064</v>
       </c>
       <c r="M6">
-        <v>14.9137735375829</v>
+        <v>10.91545812354434</v>
       </c>
       <c r="N6">
-        <v>19.49168812818974</v>
+        <v>14.63074541468296</v>
       </c>
       <c r="O6">
-        <v>18.99712721414814</v>
+        <v>15.97484399934631</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13027131085902</v>
+        <v>13.7980011151215</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.460695911807268</v>
+        <v>2.461222526374677</v>
       </c>
       <c r="E7">
-        <v>22.56205912921217</v>
+        <v>20.50278772138206</v>
       </c>
       <c r="F7">
-        <v>21.61735993607413</v>
+        <v>20.944703474796</v>
       </c>
       <c r="G7">
-        <v>3.594886547447998</v>
+        <v>2.040145901572799</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.415623300084391</v>
+        <v>7.585470528567254</v>
       </c>
       <c r="M7">
-        <v>14.93723813480069</v>
+        <v>11.06977849992316</v>
       </c>
       <c r="N7">
-        <v>19.48332369298637</v>
+        <v>14.62977929562419</v>
       </c>
       <c r="O7">
-        <v>19.02747177256051</v>
+        <v>16.22900973078514</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.34059434050399</v>
+        <v>14.81388324159058</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.473870363183526</v>
+        <v>2.509491457428918</v>
       </c>
       <c r="E8">
-        <v>22.75603572680652</v>
+        <v>21.23520966968806</v>
       </c>
       <c r="F8">
-        <v>21.9380647098966</v>
+        <v>22.6316742826288</v>
       </c>
       <c r="G8">
-        <v>3.591544423375593</v>
+        <v>2.031631287768793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.542534286815487</v>
+        <v>8.240383669078694</v>
       </c>
       <c r="M8">
-        <v>15.04488280442568</v>
+        <v>11.73364300950622</v>
       </c>
       <c r="N8">
-        <v>19.45179657413881</v>
+        <v>14.63637030948434</v>
       </c>
       <c r="O8">
-        <v>19.17425077079178</v>
+        <v>17.339201803584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.76712503867862</v>
+        <v>16.66300383057176</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.499135974694868</v>
+        <v>2.600470385700679</v>
       </c>
       <c r="E9">
-        <v>23.13719644820755</v>
+        <v>22.61008872994059</v>
       </c>
       <c r="F9">
-        <v>22.61215259341746</v>
+        <v>25.77129263713935</v>
       </c>
       <c r="G9">
-        <v>3.585654888474467</v>
+        <v>2.015865289067512</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.793802973789456</v>
+        <v>9.395484338579575</v>
       </c>
       <c r="M9">
-        <v>15.26965065511827</v>
+        <v>12.96343349031261</v>
       </c>
       <c r="N9">
-        <v>19.40922332261857</v>
+        <v>14.68936893224692</v>
       </c>
       <c r="O9">
-        <v>19.50656426909281</v>
+        <v>19.45819985133382</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.08653557026863</v>
+        <v>17.92597176227559</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.517315441604726</v>
+        <v>2.664690657130638</v>
       </c>
       <c r="E10">
-        <v>23.41630852782912</v>
+        <v>23.57477843734049</v>
       </c>
       <c r="F10">
-        <v>23.12997416579037</v>
+        <v>28.06141780174237</v>
       </c>
       <c r="G10">
-        <v>3.581728385601701</v>
+        <v>2.004782371079982</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.978431999761465</v>
+        <v>10.16523111705754</v>
       </c>
       <c r="M10">
-        <v>15.44213140974174</v>
+        <v>13.87204624157203</v>
       </c>
       <c r="N10">
-        <v>19.38959150105454</v>
+        <v>14.75370819479675</v>
       </c>
       <c r="O10">
-        <v>19.77599759646522</v>
+        <v>20.99573015607343</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.23260890836242</v>
+        <v>18.47860879484647</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.525494869523125</v>
+        <v>2.693264138836672</v>
       </c>
       <c r="E11">
-        <v>23.54278474989312</v>
+        <v>24.00238469341046</v>
       </c>
       <c r="F11">
-        <v>23.36935490805285</v>
+        <v>29.12503606757382</v>
       </c>
       <c r="G11">
-        <v>3.580028139315175</v>
+        <v>1.999832902347946</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.062128193396807</v>
+        <v>10.49839633763158</v>
       </c>
       <c r="M11">
-        <v>15.52197109801086</v>
+        <v>14.35285190601209</v>
       </c>
       <c r="N11">
-        <v>19.38316917464588</v>
+        <v>14.7886979410188</v>
       </c>
       <c r="O11">
-        <v>19.90362350031512</v>
+        <v>21.80992917656008</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.28798855837017</v>
+        <v>18.68466489707107</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.52857851608574</v>
+        <v>2.703986549290702</v>
       </c>
       <c r="E12">
-        <v>23.59058196243833</v>
+        <v>24.16259669873667</v>
       </c>
       <c r="F12">
-        <v>23.46045988280879</v>
+        <v>29.52220479950546</v>
       </c>
       <c r="G12">
-        <v>3.579396585773896</v>
+        <v>1.997970466613991</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.093755037552191</v>
+        <v>10.62213040414519</v>
       </c>
       <c r="M12">
-        <v>15.55238319605516</v>
+        <v>14.53124516053348</v>
       </c>
       <c r="N12">
-        <v>19.38109605307879</v>
+        <v>14.80278661235654</v>
       </c>
       <c r="O12">
-        <v>19.95264031095401</v>
+        <v>22.11389296806675</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.27605940464187</v>
+        <v>18.64043088809246</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.527915019391897</v>
+        <v>2.701681717888191</v>
       </c>
       <c r="E13">
-        <v>23.58029267987206</v>
+        <v>24.12816975871832</v>
       </c>
       <c r="F13">
-        <v>23.44081995585492</v>
+        <v>29.43691474760825</v>
       </c>
       <c r="G13">
-        <v>3.57953205643497</v>
+        <v>1.998371073956651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.086947006802943</v>
+        <v>10.59558975434615</v>
       </c>
       <c r="M13">
-        <v>15.54582577923206</v>
+        <v>14.49298783184402</v>
       </c>
       <c r="N13">
-        <v>19.381526605581</v>
+        <v>14.79971480441497</v>
       </c>
       <c r="O13">
-        <v>19.9420537304818</v>
+        <v>22.04862089003603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.23716398824407</v>
+        <v>18.49562590891944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.525748842134089</v>
+        <v>2.694148267429681</v>
       </c>
       <c r="E14">
-        <v>23.54671913741425</v>
+        <v>24.01560026978466</v>
       </c>
       <c r="F14">
-        <v>23.37684154581783</v>
+        <v>29.15782300242731</v>
       </c>
       <c r="G14">
-        <v>3.5799759350303</v>
+        <v>1.999679450408214</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.06473163872592</v>
+        <v>10.5086245728879</v>
       </c>
       <c r="M14">
-        <v>15.52446965404133</v>
+        <v>14.36760187531511</v>
       </c>
       <c r="N14">
-        <v>19.38299143597933</v>
+        <v>14.78984012198446</v>
       </c>
       <c r="O14">
-        <v>19.90764259482213</v>
+        <v>21.8350231292966</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21334650721995</v>
+        <v>18.40650828476894</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.524420187455372</v>
+        <v>2.689520923579219</v>
       </c>
       <c r="E15">
-        <v>23.52614103623102</v>
+        <v>23.94642246950239</v>
       </c>
       <c r="F15">
-        <v>23.33770965223301</v>
+        <v>28.98614505894279</v>
       </c>
       <c r="G15">
-        <v>3.580249422449693</v>
+        <v>2.000482363407516</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.051114614574187</v>
+        <v>10.45504020044347</v>
       </c>
       <c r="M15">
-        <v>15.51141107860569</v>
+        <v>14.29032174901818</v>
       </c>
       <c r="N15">
-        <v>19.38393536774366</v>
+        <v>14.78390130616773</v>
       </c>
       <c r="O15">
-        <v>19.88665312472102</v>
+        <v>21.70362430536225</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.07700090982118</v>
+        <v>17.88940883430842</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.516779014850398</v>
+        <v>2.662809929622013</v>
       </c>
       <c r="E16">
-        <v>23.4080308864786</v>
+        <v>23.54659857927189</v>
       </c>
       <c r="F16">
-        <v>23.1143990186506</v>
+        <v>27.99111865622354</v>
       </c>
       <c r="G16">
-        <v>3.581841224436557</v>
+        <v>2.005107565670975</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.972954218685517</v>
+        <v>10.14311719168836</v>
       </c>
       <c r="M16">
-        <v>15.43693975113373</v>
+        <v>13.84010750478689</v>
       </c>
       <c r="N16">
-        <v>19.39006153495293</v>
+        <v>14.75153804149842</v>
       </c>
       <c r="O16">
-        <v>19.76775537577109</v>
+        <v>20.94190511402135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.99352201230311</v>
+        <v>17.56652280450352</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.512067717541475</v>
+        <v>2.646255360650064</v>
       </c>
       <c r="E17">
-        <v>23.33542949291475</v>
+        <v>23.29836750096009</v>
       </c>
       <c r="F17">
-        <v>22.97831770457564</v>
+        <v>27.37062369644587</v>
       </c>
       <c r="G17">
-        <v>3.5828397080552</v>
+        <v>2.007967607220067</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.924912451897088</v>
+        <v>9.947418754603886</v>
       </c>
       <c r="M17">
-        <v>15.39159296785732</v>
+        <v>13.57230553077644</v>
       </c>
       <c r="N17">
-        <v>19.39446090557552</v>
+        <v>14.73316113069193</v>
       </c>
       <c r="O17">
-        <v>19.69608338933148</v>
+        <v>20.53393688622309</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.9455825485659</v>
+        <v>17.37874913745791</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.509349427993227</v>
+        <v>2.636673616771502</v>
       </c>
       <c r="E18">
-        <v>23.29362618999944</v>
+        <v>23.15453882314906</v>
       </c>
       <c r="F18">
-        <v>22.90041253799333</v>
+        <v>27.01000163047397</v>
       </c>
       <c r="G18">
-        <v>3.583422102327045</v>
+        <v>2.009621399242651</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.897254033992207</v>
+        <v>9.833257101256851</v>
       </c>
       <c r="M18">
-        <v>15.36564152458357</v>
+        <v>13.44539807146668</v>
       </c>
       <c r="N18">
-        <v>19.39722751237408</v>
+        <v>14.72312880336118</v>
       </c>
       <c r="O18">
-        <v>19.65533825786925</v>
+        <v>20.30833996210961</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.92936543247507</v>
+        <v>17.31482111568118</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.508427627761733</v>
+        <v>2.633419278320013</v>
       </c>
       <c r="E19">
-        <v>23.27946538243044</v>
+        <v>23.10566332154841</v>
       </c>
       <c r="F19">
-        <v>22.87410074645416</v>
+        <v>26.89785388361295</v>
       </c>
       <c r="G19">
-        <v>3.583620682979216</v>
+        <v>2.010182893272728</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.887885664230105</v>
+        <v>9.794328549835249</v>
       </c>
       <c r="M19">
-        <v>15.35687787192555</v>
+        <v>13.40223461765054</v>
       </c>
       <c r="N19">
-        <v>19.39820486042964</v>
+        <v>14.71982386791174</v>
       </c>
       <c r="O19">
-        <v>19.64162606373893</v>
+        <v>20.23177474300466</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.00240101677</v>
+        <v>17.60110814126997</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.512570125549615</v>
+        <v>2.648023874192366</v>
       </c>
       <c r="E20">
-        <v>23.34316286877331</v>
+        <v>23.32490183172006</v>
       </c>
       <c r="F20">
-        <v>22.99276666908855</v>
+        <v>27.43706194570194</v>
       </c>
       <c r="G20">
-        <v>3.582732580656971</v>
+        <v>2.007662253111494</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.930029460660634</v>
+        <v>9.968416797348249</v>
       </c>
       <c r="M20">
-        <v>15.39640681080007</v>
+        <v>13.59570013841358</v>
       </c>
       <c r="N20">
-        <v>19.39396815161384</v>
+        <v>14.73506162917326</v>
       </c>
       <c r="O20">
-        <v>19.70366373512421</v>
+        <v>20.57560271320331</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24858711999805</v>
+        <v>18.53824634174332</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.526385479075548</v>
+        <v>2.69636371960856</v>
       </c>
       <c r="E21">
-        <v>23.55658332561291</v>
+        <v>24.04871185309207</v>
       </c>
       <c r="F21">
-        <v>23.39562189784542</v>
+        <v>29.23995014882363</v>
       </c>
       <c r="G21">
-        <v>3.579845224021257</v>
+        <v>1.99929483978772</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.071258848152874</v>
+        <v>10.53423410824922</v>
       </c>
       <c r="M21">
-        <v>15.5307377768732</v>
+        <v>14.40453022345775</v>
       </c>
       <c r="N21">
-        <v>19.38255145488117</v>
+        <v>14.79271766321491</v>
       </c>
       <c r="O21">
-        <v>19.91773164180891</v>
+        <v>21.89787931039796</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.40984097692695</v>
+        <v>19.13196089782569</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.535334279309572</v>
+        <v>2.727384611519773</v>
       </c>
       <c r="E22">
-        <v>23.6954911841687</v>
+        <v>24.51174348958831</v>
       </c>
       <c r="F22">
-        <v>23.66153051485522</v>
+        <v>30.38566222748395</v>
       </c>
       <c r="G22">
-        <v>3.578029791639091</v>
+        <v>1.993894393741353</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.163158201426699</v>
+        <v>10.88988503771172</v>
       </c>
       <c r="M22">
-        <v>15.61956229475549</v>
+        <v>14.91697946332132</v>
       </c>
       <c r="N22">
-        <v>19.37718088080158</v>
+        <v>14.83529580236923</v>
       </c>
       <c r="O22">
-        <v>20.0616260920468</v>
+        <v>22.77462329811235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32375918595839</v>
+        <v>18.81681761789955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.530565721786357</v>
+        <v>2.710882241828844</v>
       </c>
       <c r="E23">
-        <v>23.62141446141613</v>
+        <v>24.26555980274506</v>
       </c>
       <c r="F23">
-        <v>23.5194008651951</v>
+        <v>29.77711783076685</v>
       </c>
       <c r="G23">
-        <v>3.578992190053821</v>
+        <v>1.99677098608735</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.11415470275225</v>
+        <v>10.70135500027317</v>
       </c>
       <c r="M23">
-        <v>15.57206710487862</v>
+        <v>14.64542019438634</v>
       </c>
       <c r="N23">
-        <v>19.37985655913735</v>
+        <v>14.8121177444373</v>
       </c>
       <c r="O23">
-        <v>19.98447548311175</v>
+        <v>22.30896872424782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99838664812632</v>
+        <v>17.58547877761746</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.512343017039378</v>
+        <v>2.64722452907318</v>
       </c>
       <c r="E24">
-        <v>23.33966680637614</v>
+        <v>23.31290913341818</v>
       </c>
       <c r="F24">
-        <v>22.98623325781024</v>
+        <v>27.40703733971806</v>
       </c>
       <c r="G24">
-        <v>3.582780986930106</v>
+        <v>2.007800273956399</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.927716179194981</v>
+        <v>9.958928729007248</v>
       </c>
       <c r="M24">
-        <v>15.39423010014013</v>
+        <v>13.58512718487359</v>
       </c>
       <c r="N24">
-        <v>19.39419018621083</v>
+        <v>14.7342007554646</v>
       </c>
       <c r="O24">
-        <v>19.70023522469667</v>
+        <v>20.55676925213789</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.65049104411149</v>
+        <v>16.17906789396944</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.492365626306642</v>
+        <v>2.576292503528194</v>
       </c>
       <c r="E25">
-        <v>23.03414365050934</v>
+        <v>22.24560345745326</v>
       </c>
       <c r="F25">
-        <v>22.42546288780735</v>
+        <v>24.94146767457378</v>
       </c>
       <c r="G25">
-        <v>3.5871775035615</v>
+        <v>2.020037384032149</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.725720806751248</v>
+        <v>9.096874549317665</v>
       </c>
       <c r="M25">
-        <v>15.20748146700314</v>
+        <v>12.63928988406168</v>
       </c>
       <c r="N25">
-        <v>19.41868848295987</v>
+        <v>14.67064010432319</v>
       </c>
       <c r="O25">
-        <v>19.41208297107439</v>
+        <v>18.89247326920465</v>
       </c>
     </row>
   </sheetData>
